--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_HORAS_POR_DIA.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_HORAS_POR_DIA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>IDHORASPORDIA</t>
   </si>
@@ -27,6 +27,57 @@
   </si>
   <si>
     <t>IDDIA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -396,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +464,193 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
